--- a/HW2/HW2-1.xlsx
+++ b/HW2/HW2-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingjinf/Desktop/Northwestern/Fall 2018/MSIA 440/Homework/HW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingjinf/Desktop/Northwestern/Fall 2018/MSIA 440/Homework/HW1/optimization_hw/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF047CD-E0C4-714A-8CD6-9AE4C1AE2442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAE65A1-B8A4-014F-AA47-74C8D2BEF066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14000" activeTab="3" xr2:uid="{93E0AB4D-922A-5347-93FF-E6210A76C7E5}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25040" windowHeight="14000" activeTab="3" xr2:uid="{93E0AB4D-922A-5347-93FF-E6210A76C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Exer.1-1" sheetId="3" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>Ale</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Interval Max</t>
+  </si>
+  <si>
+    <t>Total Profit</t>
   </si>
 </sst>
 </file>
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB471EE-2ADB-674C-B99E-CC2C97E02E65}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I7"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B18" s="11">
         <f>B16-B17</f>
@@ -1026,7 +1029,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B13" s="11">
         <f>B11-B12</f>
@@ -1243,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D09E-5BFA-A240-B662-2525B1815E4F}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B18" s="11">
         <f>B16-B17</f>
@@ -1592,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E63024F-9624-694F-8BB1-CEF5A13203FB}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1908,7 +1911,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1916,10 +1919,11 @@
         <f>SUM(C7:C14)</f>
         <v>7897.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B18" s="11">
         <f>B16-B17</f>
